--- a/V4.2.1/test1.6.xlsx
+++ b/V4.2.1/test1.6.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c07f88f70ea053f/code/UAV_python/AntiUAV_Python/V4.2.1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="114_{2DBDFB25-DEFA-4656-BBB6-FD7CBCE2FFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6146C1C-435D-4EEA-953D-44011FE2E537}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId2"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2967,14 +2974,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/M/d h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2993,27 +3006,354 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J447"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3077,7 +3417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3109,7 +3449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3141,7 +3481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3173,7 +3513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3205,7 +3545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3237,7 +3577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3269,7 +3609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3301,7 +3641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3333,7 +3673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3365,7 +3705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3397,7 +3737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3429,7 +3769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3461,7 +3801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3493,7 +3833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3525,7 +3865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3557,7 +3897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3589,7 +3929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3621,7 +3961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3653,7 +3993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3685,7 +4025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3717,7 +4057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3749,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3781,7 +4121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3813,7 +4153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3845,7 +4185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3877,7 +4217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3909,7 +4249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3941,7 +4281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3973,7 +4313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4005,7 +4345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4037,7 +4377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4069,7 +4409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4101,7 +4441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4133,7 +4473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4165,7 +4505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4197,7 +4537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4229,7 +4569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4261,7 +4601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4293,7 +4633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4325,7 +4665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4357,7 +4697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4389,7 +4729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4421,7 +4761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4453,7 +4793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4485,7 +4825,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4517,7 +4857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4549,7 +4889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4581,7 +4921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4613,7 +4953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4645,7 +4985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4677,7 +5017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4709,7 +5049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4741,7 +5081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4773,7 +5113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4805,7 +5145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4837,7 +5177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4869,7 +5209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4901,7 +5241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4933,7 +5273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4965,7 +5305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4997,7 +5337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5029,7 +5369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5061,7 +5401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5093,7 +5433,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5125,7 +5465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5157,7 +5497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5189,7 +5529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5221,7 +5561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5253,7 +5593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5285,7 +5625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5317,7 +5657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5349,7 +5689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5381,7 +5721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5413,7 +5753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5445,7 +5785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5477,7 +5817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5509,7 +5849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5541,7 +5881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5573,7 +5913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5605,7 +5945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5637,7 +5977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5669,7 +6009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5701,7 +6041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5733,7 +6073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5765,7 +6105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5797,7 +6137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5829,7 +6169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5861,7 +6201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5893,7 +6233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5925,7 +6265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5957,7 +6297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5989,7 +6329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6021,7 +6361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6053,7 +6393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6085,7 +6425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6117,7 +6457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6149,7 +6489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6181,7 +6521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6213,7 +6553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6245,7 +6585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6277,7 +6617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6309,7 +6649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6341,7 +6681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6373,7 +6713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6405,7 +6745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6437,7 +6777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6469,7 +6809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6501,7 +6841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6533,7 +6873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6565,7 +6905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6597,7 +6937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6629,7 +6969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6661,7 +7001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6693,7 +7033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6725,7 +7065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6757,7 +7097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6789,7 +7129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6821,7 +7161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6853,7 +7193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6885,7 +7225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6917,7 +7257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6949,7 +7289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6981,7 +7321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7013,7 +7353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7045,7 +7385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7077,7 +7417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7109,7 +7449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7141,7 +7481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7173,7 +7513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7205,7 +7545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7237,7 +7577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7269,7 +7609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7301,7 +7641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7333,7 +7673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7365,7 +7705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7397,7 +7737,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7429,7 +7769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7461,7 +7801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7493,7 +7833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7525,7 +7865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7557,7 +7897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7589,7 +7929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7621,7 +7961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7653,7 +7993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7685,7 +8025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7717,7 +8057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7749,7 +8089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7781,7 +8121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7813,7 +8153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7845,7 +8185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7877,7 +8217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7909,7 +8249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7941,7 +8281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7973,7 +8313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8005,7 +8345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8037,7 +8377,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8069,7 +8409,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8101,7 +8441,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8133,7 +8473,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8165,7 +8505,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8197,7 +8537,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8229,7 +8569,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8261,7 +8601,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8293,7 +8633,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8325,7 +8665,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8357,7 +8697,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8389,7 +8729,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8421,7 +8761,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8453,7 +8793,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8485,7 +8825,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8517,7 +8857,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8549,7 +8889,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8581,7 +8921,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8613,7 +8953,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8645,7 +8985,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8677,7 +9017,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8709,7 +9049,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8741,7 +9081,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8773,7 +9113,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8805,7 +9145,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8837,7 +9177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8869,7 +9209,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8901,7 +9241,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8933,7 +9273,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8965,7 +9305,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8997,7 +9337,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9029,7 +9369,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9061,7 +9401,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9093,7 +9433,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9125,7 +9465,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9157,7 +9497,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9189,7 +9529,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9221,7 +9561,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9253,7 +9593,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9285,7 +9625,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9317,7 +9657,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9349,7 +9689,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9381,7 +9721,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9413,7 +9753,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9445,7 +9785,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9477,7 +9817,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9509,7 +9849,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9541,7 +9881,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9573,7 +9913,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9605,7 +9945,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9637,7 +9977,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9669,7 +10009,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9701,7 +10041,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9733,7 +10073,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9765,7 +10105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9797,7 +10137,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9829,7 +10169,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9861,7 +10201,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9893,7 +10233,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9925,7 +10265,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9957,7 +10297,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9989,7 +10329,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10021,7 +10361,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10053,7 +10393,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10085,7 +10425,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10117,7 +10457,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10149,7 +10489,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10181,7 +10521,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10213,7 +10553,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10245,7 +10585,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10277,7 +10617,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10309,7 +10649,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10341,7 +10681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10373,7 +10713,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10405,7 +10745,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10437,7 +10777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10469,7 +10809,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10501,7 +10841,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10533,7 +10873,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10565,7 +10905,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10597,7 +10937,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10629,7 +10969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10661,7 +11001,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10693,7 +11033,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10725,7 +11065,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10757,7 +11097,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10789,7 +11129,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10821,7 +11161,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10853,7 +11193,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10885,7 +11225,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10917,7 +11257,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10949,7 +11289,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10981,7 +11321,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11013,7 +11353,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11045,7 +11385,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11077,7 +11417,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11109,7 +11449,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11141,7 +11481,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11173,7 +11513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11205,7 +11545,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11237,7 +11577,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11269,7 +11609,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11301,7 +11641,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11333,7 +11673,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11365,7 +11705,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11397,7 +11737,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11429,7 +11769,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11461,7 +11801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11493,7 +11833,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11525,7 +11865,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11557,7 +11897,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11589,7 +11929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11621,7 +11961,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11653,7 +11993,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11685,7 +12025,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11717,7 +12057,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11749,7 +12089,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11781,7 +12121,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11813,7 +12153,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11845,7 +12185,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11877,7 +12217,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11909,7 +12249,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11941,7 +12281,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11973,7 +12313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12005,7 +12345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12037,7 +12377,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12069,7 +12409,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12101,7 +12441,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12133,7 +12473,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12165,7 +12505,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12197,7 +12537,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12229,7 +12569,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12261,7 +12601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12293,7 +12633,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12325,7 +12665,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12357,7 +12697,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12389,7 +12729,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12421,7 +12761,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12453,7 +12793,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12485,7 +12825,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12517,7 +12857,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12549,7 +12889,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12581,7 +12921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12613,7 +12953,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12645,7 +12985,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12677,7 +13017,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12709,7 +13049,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12741,7 +13081,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12773,7 +13113,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12805,7 +13145,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12837,7 +13177,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12869,7 +13209,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12901,7 +13241,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12933,7 +13273,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12965,7 +13305,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12997,7 +13337,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13029,7 +13369,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13061,7 +13401,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13093,7 +13433,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13125,7 +13465,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13157,7 +13497,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13189,7 +13529,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13221,7 +13561,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13253,7 +13593,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10">
       <c r="A321">
         <v>320</v>
       </c>
@@ -13285,7 +13625,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10">
       <c r="A322">
         <v>321</v>
       </c>
@@ -13317,7 +13657,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10">
       <c r="A323">
         <v>322</v>
       </c>
@@ -13349,7 +13689,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10">
       <c r="A324">
         <v>323</v>
       </c>
@@ -13381,7 +13721,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10">
       <c r="A325">
         <v>324</v>
       </c>
@@ -13413,7 +13753,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13445,7 +13785,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13477,7 +13817,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13509,7 +13849,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13541,7 +13881,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13573,7 +13913,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13605,7 +13945,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13637,7 +13977,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13669,7 +14009,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13701,7 +14041,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13733,7 +14073,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13765,7 +14105,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13797,7 +14137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13829,7 +14169,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13861,7 +14201,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13893,7 +14233,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13925,7 +14265,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13957,7 +14297,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13989,7 +14329,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14021,7 +14361,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14053,7 +14393,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10">
       <c r="A346">
         <v>345</v>
       </c>
@@ -14085,7 +14425,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10">
       <c r="A347">
         <v>346</v>
       </c>
@@ -14117,7 +14457,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10">
       <c r="A348">
         <v>347</v>
       </c>
@@ -14149,7 +14489,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10">
       <c r="A349">
         <v>348</v>
       </c>
@@ -14181,7 +14521,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10">
       <c r="A350">
         <v>349</v>
       </c>
@@ -14213,7 +14553,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10">
       <c r="A351">
         <v>350</v>
       </c>
@@ -14245,7 +14585,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10">
       <c r="A352">
         <v>351</v>
       </c>
@@ -14277,7 +14617,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:10">
       <c r="A353">
         <v>352</v>
       </c>
@@ -14309,7 +14649,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:10">
       <c r="A354">
         <v>353</v>
       </c>
@@ -14341,7 +14681,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:10">
       <c r="A355">
         <v>354</v>
       </c>
@@ -14373,7 +14713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:10">
       <c r="A356">
         <v>355</v>
       </c>
@@ -14405,7 +14745,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>356</v>
       </c>
@@ -14437,7 +14777,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:10">
       <c r="A358">
         <v>357</v>
       </c>
@@ -14469,7 +14809,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:10">
       <c r="A359">
         <v>358</v>
       </c>
@@ -14501,7 +14841,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:10">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14533,7 +14873,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:10">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14565,7 +14905,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:10">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14597,7 +14937,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:10">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14629,7 +14969,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:10">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14661,7 +15001,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:10">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14693,7 +15033,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:10">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14725,7 +15065,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:10">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14757,7 +15097,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:10">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14789,7 +15129,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14821,7 +15161,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14853,7 +15193,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14885,7 +15225,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14917,7 +15257,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14949,7 +15289,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14981,7 +15321,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10">
       <c r="A375">
         <v>374</v>
       </c>
@@ -15013,7 +15353,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10">
       <c r="A376">
         <v>375</v>
       </c>
@@ -15045,7 +15385,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10">
       <c r="A377">
         <v>376</v>
       </c>
@@ -15077,7 +15417,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10">
       <c r="A378">
         <v>377</v>
       </c>
@@ -15109,7 +15449,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10">
       <c r="A379">
         <v>378</v>
       </c>
@@ -15141,7 +15481,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10">
       <c r="A380">
         <v>379</v>
       </c>
@@ -15173,7 +15513,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10">
       <c r="A381">
         <v>380</v>
       </c>
@@ -15205,7 +15545,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10">
       <c r="A382">
         <v>381</v>
       </c>
@@ -15237,7 +15577,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10">
       <c r="A383">
         <v>382</v>
       </c>
@@ -15269,7 +15609,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10">
       <c r="A384">
         <v>383</v>
       </c>
@@ -15301,7 +15641,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10">
       <c r="A385">
         <v>384</v>
       </c>
@@ -15333,7 +15673,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10">
       <c r="A386">
         <v>385</v>
       </c>
@@ -15365,7 +15705,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10">
       <c r="A387">
         <v>386</v>
       </c>
@@ -15397,7 +15737,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10">
       <c r="A388">
         <v>387</v>
       </c>
@@ -15429,7 +15769,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10">
       <c r="A389">
         <v>388</v>
       </c>
@@ -15461,7 +15801,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10">
       <c r="A390">
         <v>389</v>
       </c>
@@ -15493,7 +15833,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15525,7 +15865,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15557,7 +15897,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15589,7 +15929,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15621,7 +15961,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15653,7 +15993,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15685,7 +16025,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15717,7 +16057,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15749,7 +16089,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15781,7 +16121,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15813,7 +16153,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15845,7 +16185,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15877,7 +16217,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15909,7 +16249,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15941,7 +16281,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15973,7 +16313,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10">
       <c r="A406">
         <v>405</v>
       </c>
@@ -16005,7 +16345,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10">
       <c r="A407">
         <v>406</v>
       </c>
@@ -16037,7 +16377,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10">
       <c r="A408">
         <v>407</v>
       </c>
@@ -16069,7 +16409,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10">
       <c r="A409">
         <v>408</v>
       </c>
@@ -16101,7 +16441,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10">
       <c r="A410">
         <v>409</v>
       </c>
@@ -16133,7 +16473,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10">
       <c r="A411">
         <v>410</v>
       </c>
@@ -16165,7 +16505,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10">
       <c r="A412">
         <v>411</v>
       </c>
@@ -16197,7 +16537,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10">
       <c r="A413">
         <v>412</v>
       </c>
@@ -16229,7 +16569,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10">
       <c r="A414">
         <v>413</v>
       </c>
@@ -16261,7 +16601,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10">
       <c r="A415">
         <v>414</v>
       </c>
@@ -16293,7 +16633,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10">
       <c r="A416">
         <v>415</v>
       </c>
@@ -16325,7 +16665,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:10">
       <c r="A417">
         <v>416</v>
       </c>
@@ -16357,7 +16697,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:10">
       <c r="A418">
         <v>417</v>
       </c>
@@ -16389,7 +16729,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:10">
       <c r="A419">
         <v>418</v>
       </c>
@@ -16421,7 +16761,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:10">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16453,7 +16793,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:10">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16485,7 +16825,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:10">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16517,7 +16857,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:10">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16549,7 +16889,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:10">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16581,7 +16921,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:10">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16613,7 +16953,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:10">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16645,7 +16985,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:10">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16677,7 +17017,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:10">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16709,7 +17049,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:10">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16741,7 +17081,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:10">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16773,7 +17113,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:10">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16805,7 +17145,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:10">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16837,7 +17177,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16869,7 +17209,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16901,7 +17241,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16933,7 +17273,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16965,7 +17305,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16997,7 +17337,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10">
       <c r="A438">
         <v>437</v>
       </c>
@@ -17029,7 +17369,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10">
       <c r="A439">
         <v>438</v>
       </c>
@@ -17061,7 +17401,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10">
       <c r="A440">
         <v>439</v>
       </c>
@@ -17093,7 +17433,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10">
       <c r="A441">
         <v>440</v>
       </c>
@@ -17125,7 +17465,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10">
       <c r="A442">
         <v>441</v>
       </c>
@@ -17157,7 +17497,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10">
       <c r="A443">
         <v>442</v>
       </c>
@@ -17189,7 +17529,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10">
       <c r="A444">
         <v>443</v>
       </c>
@@ -17221,7 +17561,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10">
       <c r="A445">
         <v>444</v>
       </c>
@@ -17253,7 +17593,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10">
       <c r="A446">
         <v>445</v>
       </c>
@@ -17285,7 +17625,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10">
       <c r="A447">
         <v>446</v>
       </c>
@@ -17318,5 +17658,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>